--- a/CH-128 Cartesian Product.xlsx
+++ b/CH-128 Cartesian Product.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C75DDD-163D-47AE-B463-210FF094D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DDE8B-5B22-4F63-9FB4-7310B8CBE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Result</t>
   </si>
@@ -237,6 +261,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -471,6 +507,253 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA92CFD9-E0BB-DAC5-95A8-A2838B2C84DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4003539" y="1872423"/>
+            <a:ext cx="4034158" cy="2343148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Challenge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> 128</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cartesian Product! </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-AU" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Write all the 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> characters words by using "A","B",C", AND "D".</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82828</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3014872</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD2A7BB-4E26-499B-B53F-3972145D596E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="301489" y="0"/>
+          <a:ext cx="2932044" cy="1796499"/>
+          <a:chOff x="4003539" y="1860550"/>
+          <a:chExt cx="4034158" cy="2393950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465A1913-B649-501A-5E4F-CEB4B684C0E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4108379" y="1860550"/>
+            <a:ext cx="3860942" cy="2393950"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-AU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2776E0-22A4-A840-3B3B-8E31D4D23B6A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -871,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1252,4 +1535,1343 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA10BB-F35B-4DB2-88A0-8867B5C04233}">
+  <dimension ref="B1:I93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="str" cm="1">
+        <f t="array" ref="F7:I10">E7:E10&amp;F6:I6</f>
+        <v>AA</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>AB</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <v>AC</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <v>BA</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>BB</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <v>BC</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <v>BD</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <v>CA</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v>CB</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <v>CC</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <v>CD</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <v>DA</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>DB</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <v>DC</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <v>DD</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" ref="E13:E28">_xlfn.TOCOL(_xlfn.ANCHORARRAY(F7))</f>
+        <v>AA</v>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13:I28">F12:I12&amp;_xlfn.ANCHORARRAY(E13)</f>
+        <v>AAA</v>
+      </c>
+      <c r="G13" t="str">
+        <v>BAA</v>
+      </c>
+      <c r="H13" t="str">
+        <v>CAA</v>
+      </c>
+      <c r="I13" t="str">
+        <v>DAA</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <v>AB</v>
+      </c>
+      <c r="F14" t="str">
+        <v>AAB</v>
+      </c>
+      <c r="G14" t="str">
+        <v>BAB</v>
+      </c>
+      <c r="H14" t="str">
+        <v>CAB</v>
+      </c>
+      <c r="I14" t="str">
+        <v>DAB</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <v>AC</v>
+      </c>
+      <c r="F15" t="str">
+        <v>AAC</v>
+      </c>
+      <c r="G15" t="str">
+        <v>BAC</v>
+      </c>
+      <c r="H15" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="I15" t="str">
+        <v>DAC</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <v>AD</v>
+      </c>
+      <c r="F16" t="str">
+        <v>AAD</v>
+      </c>
+      <c r="G16" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="H16" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="I16" t="str">
+        <v>DAD</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <v>BA</v>
+      </c>
+      <c r="F17" t="str">
+        <v>ABA</v>
+      </c>
+      <c r="G17" t="str">
+        <v>BBA</v>
+      </c>
+      <c r="H17" t="str">
+        <v>CBA</v>
+      </c>
+      <c r="I17" t="str">
+        <v>DBA</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <v>BB</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ABB</v>
+      </c>
+      <c r="G18" t="str">
+        <v>BBB</v>
+      </c>
+      <c r="H18" t="str">
+        <v>CBB</v>
+      </c>
+      <c r="I18" t="str">
+        <v>DBB</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <v>BC</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="G19" t="str">
+        <v>BBC</v>
+      </c>
+      <c r="H19" t="str">
+        <v>CBC</v>
+      </c>
+      <c r="I19" t="str">
+        <v>DBC</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <v>BD</v>
+      </c>
+      <c r="F20" t="str">
+        <v>ABD</v>
+      </c>
+      <c r="G20" t="str">
+        <v>BBD</v>
+      </c>
+      <c r="H20" t="str">
+        <v>CBD</v>
+      </c>
+      <c r="I20" t="str">
+        <v>DBD</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <v>CA</v>
+      </c>
+      <c r="F21" t="str">
+        <v>ACA</v>
+      </c>
+      <c r="G21" t="str">
+        <v>BCA</v>
+      </c>
+      <c r="H21" t="str">
+        <v>CCA</v>
+      </c>
+      <c r="I21" t="str">
+        <v>DCA</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CB</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ACB</v>
+      </c>
+      <c r="G22" t="str">
+        <v>BCB</v>
+      </c>
+      <c r="H22" t="str">
+        <v>CCB</v>
+      </c>
+      <c r="I22" t="str">
+        <v>DCB</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="str">
+        <v>CC</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ACC</v>
+      </c>
+      <c r="G23" t="str">
+        <v>BCC</v>
+      </c>
+      <c r="H23" t="str">
+        <v>CCC</v>
+      </c>
+      <c r="I23" t="str">
+        <v>DCC</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <v>CD</v>
+      </c>
+      <c r="F24" t="str">
+        <v>ACD</v>
+      </c>
+      <c r="G24" t="str">
+        <v>BCD</v>
+      </c>
+      <c r="H24" t="str">
+        <v>CCD</v>
+      </c>
+      <c r="I24" t="str">
+        <v>DCD</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <v>DA</v>
+      </c>
+      <c r="F25" t="str">
+        <v>ADA</v>
+      </c>
+      <c r="G25" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="H25" t="str">
+        <v>CDA</v>
+      </c>
+      <c r="I25" t="str">
+        <v>DDA</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <v>DB</v>
+      </c>
+      <c r="F26" t="str">
+        <v>ADB</v>
+      </c>
+      <c r="G26" t="str">
+        <v>BDB</v>
+      </c>
+      <c r="H26" t="str">
+        <v>CDB</v>
+      </c>
+      <c r="I26" t="str">
+        <v>DDB</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="str">
+        <v>DC</v>
+      </c>
+      <c r="F27" t="str">
+        <v>ADC</v>
+      </c>
+      <c r="G27" t="str">
+        <v>BDC</v>
+      </c>
+      <c r="H27" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="I27" t="str">
+        <v>DDC</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="str">
+        <v>DD</v>
+      </c>
+      <c r="F28" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="G28" t="str">
+        <v>BDD</v>
+      </c>
+      <c r="H28" t="str">
+        <v>CDD</v>
+      </c>
+      <c r="I28" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="str" cm="1">
+        <f t="array" ref="E30:E93">_xlfn.TOCOL(_xlfn.ANCHORARRAY(F13))</f>
+        <v>AAA</v>
+      </c>
+      <c r="F30" t="str" cm="1">
+        <f t="array" ref="F30:F93">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(E30),1)</f>
+        <v>AAA</v>
+      </c>
+      <c r="G30" t="b" cm="1">
+        <f t="array" ref="G30:G93">_xlfn.ANCHORARRAY(F30)=C2:C65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <v>BAA</v>
+      </c>
+      <c r="F31" t="str">
+        <v>AAB</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="str">
+        <v>CAA</v>
+      </c>
+      <c r="F32" t="str">
+        <v>AAC</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="F33" t="str">
+        <v>AAD</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="str">
+        <v>AAB</v>
+      </c>
+      <c r="F34" t="str">
+        <v>ABA</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="str">
+        <v>BAB</v>
+      </c>
+      <c r="F35" t="str">
+        <v>ABB</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="str">
+        <v>CAB</v>
+      </c>
+      <c r="F36" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="str">
+        <v>DAB</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ABD</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="str">
+        <v>AAC</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ACA</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="str">
+        <v>BAC</v>
+      </c>
+      <c r="F39" t="str">
+        <v>ACB</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="F40" t="str">
+        <v>ACC</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="str">
+        <v>DAC</v>
+      </c>
+      <c r="F41" t="str">
+        <v>ACD</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="str">
+        <v>AAD</v>
+      </c>
+      <c r="F42" t="str">
+        <v>ADA</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="F43" t="str">
+        <v>ADB</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="F44" t="str">
+        <v>ADC</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="str">
+        <v>DAD</v>
+      </c>
+      <c r="F45" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="str">
+        <v>ABA</v>
+      </c>
+      <c r="F46" t="str">
+        <v>BAA</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="str">
+        <v>BBA</v>
+      </c>
+      <c r="F47" t="str">
+        <v>BAB</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="str">
+        <v>CBA</v>
+      </c>
+      <c r="F48" t="str">
+        <v>BAC</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="str">
+        <v>DBA</v>
+      </c>
+      <c r="F49" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ABB</v>
+      </c>
+      <c r="F50" t="str">
+        <v>BBA</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="str">
+        <v>BBB</v>
+      </c>
+      <c r="F51" t="str">
+        <v>BBB</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="str">
+        <v>CBB</v>
+      </c>
+      <c r="F52" t="str">
+        <v>BBC</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="str">
+        <v>DBB</v>
+      </c>
+      <c r="F53" t="str">
+        <v>BBD</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F54" t="str">
+        <v>BCA</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="str">
+        <v>BBC</v>
+      </c>
+      <c r="F55" t="str">
+        <v>BCB</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="str">
+        <v>CBC</v>
+      </c>
+      <c r="F56" t="str">
+        <v>BCC</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="F57" t="str">
+        <v>BCD</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="str">
+        <v>ABD</v>
+      </c>
+      <c r="F58" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="str">
+        <v>BBD</v>
+      </c>
+      <c r="F59" t="str">
+        <v>BDB</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="str">
+        <v>CBD</v>
+      </c>
+      <c r="F60" t="str">
+        <v>BDC</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="str">
+        <v>DBD</v>
+      </c>
+      <c r="F61" t="str">
+        <v>BDD</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ACA</v>
+      </c>
+      <c r="F62" t="str">
+        <v>CAA</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="str">
+        <v>BCA</v>
+      </c>
+      <c r="F63" t="str">
+        <v>CAB</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="str">
+        <v>CCA</v>
+      </c>
+      <c r="F64" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="str">
+        <v>DCA</v>
+      </c>
+      <c r="F65" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <v>ACB</v>
+      </c>
+      <c r="F66" t="str">
+        <v>CBA</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <v>BCB</v>
+      </c>
+      <c r="F67" t="str">
+        <v>CBB</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <v>CCB</v>
+      </c>
+      <c r="F68" t="str">
+        <v>CBC</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <v>DCB</v>
+      </c>
+      <c r="F69" t="str">
+        <v>CBD</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <v>ACC</v>
+      </c>
+      <c r="F70" t="str">
+        <v>CCA</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <v>BCC</v>
+      </c>
+      <c r="F71" t="str">
+        <v>CCB</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <v>CCC</v>
+      </c>
+      <c r="F72" t="str">
+        <v>CCC</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <v>DCC</v>
+      </c>
+      <c r="F73" t="str">
+        <v>CCD</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <v>ACD</v>
+      </c>
+      <c r="F74" t="str">
+        <v>CDA</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <v>BCD</v>
+      </c>
+      <c r="F75" t="str">
+        <v>CDB</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <v>CCD</v>
+      </c>
+      <c r="F76" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <v>DCD</v>
+      </c>
+      <c r="F77" t="str">
+        <v>CDD</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <v>ADA</v>
+      </c>
+      <c r="F78" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="F79" t="str">
+        <v>DAB</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <v>CDA</v>
+      </c>
+      <c r="F80" t="str">
+        <v>DAC</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <v>DDA</v>
+      </c>
+      <c r="F81" t="str">
+        <v>DAD</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <v>ADB</v>
+      </c>
+      <c r="F82" t="str">
+        <v>DBA</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <v>BDB</v>
+      </c>
+      <c r="F83" t="str">
+        <v>DBB</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <v>CDB</v>
+      </c>
+      <c r="F84" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <v>DDB</v>
+      </c>
+      <c r="F85" t="str">
+        <v>DBD</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <v>ADC</v>
+      </c>
+      <c r="F86" t="str">
+        <v>DCA</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <v>BDC</v>
+      </c>
+      <c r="F87" t="str">
+        <v>DCB</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="F88" t="str">
+        <v>DCC</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <v>DDC</v>
+      </c>
+      <c r="F89" t="str">
+        <v>DCD</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="F90" t="str">
+        <v>DDA</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <v>BDD</v>
+      </c>
+      <c r="F91" t="str">
+        <v>DDB</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <v>CDD</v>
+      </c>
+      <c r="F92" t="str">
+        <v>DDC</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <v>DDD</v>
+      </c>
+      <c r="F93" t="str">
+        <v>DDD</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-128 Cartesian Product.xlsx
+++ b/CH-128 Cartesian Product.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DDE8B-5B22-4F63-9FB4-7310B8CBE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C0A56-7A93-47C0-A2FA-BDA73A31F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="EDA2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EDA2'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
   <si>
     <t>Result</t>
   </si>
@@ -907,6 +909,253 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82828</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3014872</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B652C8-F1D7-4B84-A9C4-71CF85B497BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="301489" y="0"/>
+          <a:ext cx="2932044" cy="1796499"/>
+          <a:chOff x="4003539" y="1860550"/>
+          <a:chExt cx="4034158" cy="2393950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1330B1A0-CBB1-7554-6C56-7D3899048D83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4108379" y="1860550"/>
+            <a:ext cx="3860942" cy="2393950"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-AU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0046F62C-922C-DBF9-B092-DF75A87C4E8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4003539" y="1872423"/>
+            <a:ext cx="4034158" cy="2343148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Challenge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> 128</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cartesian Product! </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-AU" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Write all the 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> characters words by using "A","B",C", AND "D".</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Wisp">
   <a:themeElements>
@@ -1541,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA10BB-F35B-4DB2-88A0-8867B5C04233}">
   <dimension ref="B1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I39" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2874,4 +3123,1381 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4254ED2-C4F9-4085-9A22-E57E632847D7}">
+  <dimension ref="B1:I70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" cm="1">
+        <f t="array" ref="E7:E70">_xlfn.SEQUENCE(64,,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>_xlfn.BASE(E7,4,3)</f>
+        <v>000</v>
+      </c>
+      <c r="G7" s="1" t="str" cm="1">
+        <f t="array" ref="G7">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F7)</f>
+        <v>AAA</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <f>G7=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" ref="F8:F70" si="0">_xlfn.BASE(E8,4,3)</f>
+        <v>001</v>
+      </c>
+      <c r="G8" s="1" t="str" cm="1">
+        <f t="array" ref="G8">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F8)</f>
+        <v>AAB</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <f t="shared" ref="H8:H70" si="1">G8=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>002</v>
+      </c>
+      <c r="G9" s="1" t="str" cm="1">
+        <f t="array" ref="G9">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F9)</f>
+        <v>AAC</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>003</v>
+      </c>
+      <c r="G10" s="1" t="str" cm="1">
+        <f t="array" ref="G10">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F10)</f>
+        <v>AAD</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="G11" s="1" t="str" cm="1">
+        <f t="array" ref="G11">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F11)</f>
+        <v>ABA</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="G12" s="1" t="str" cm="1">
+        <f t="array" ref="G12">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F12)</f>
+        <v>ABB</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>012</v>
+      </c>
+      <c r="G13" s="1" t="str" cm="1">
+        <f t="array" ref="G13">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F13)</f>
+        <v>ABC</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>013</v>
+      </c>
+      <c r="G14" s="1" t="str" cm="1">
+        <f t="array" ref="G14">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F14)</f>
+        <v>ABD</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>020</v>
+      </c>
+      <c r="G15" s="1" t="str" cm="1">
+        <f t="array" ref="G15">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F15)</f>
+        <v>ACA</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>021</v>
+      </c>
+      <c r="G16" s="1" t="str" cm="1">
+        <f t="array" ref="G16">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F16)</f>
+        <v>ACB</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>022</v>
+      </c>
+      <c r="G17" s="1" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F17)</f>
+        <v>ACC</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>023</v>
+      </c>
+      <c r="G18" s="1" t="str" cm="1">
+        <f t="array" ref="G18">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F18)</f>
+        <v>ACD</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>030</v>
+      </c>
+      <c r="G19" s="1" t="str" cm="1">
+        <f t="array" ref="G19">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F19)</f>
+        <v>ADA</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>031</v>
+      </c>
+      <c r="G20" s="1" t="str" cm="1">
+        <f t="array" ref="G20">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F20)</f>
+        <v>ADB</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>032</v>
+      </c>
+      <c r="G21" s="1" t="str" cm="1">
+        <f t="array" ref="G21">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F21)</f>
+        <v>ADC</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>033</v>
+      </c>
+      <c r="G22" s="1" t="str" cm="1">
+        <f t="array" ref="G22">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F22)</f>
+        <v>ADD</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="str" cm="1">
+        <f t="array" ref="G23">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F23)</f>
+        <v>BAA</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="str" cm="1">
+        <f t="array" ref="G24">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F24)</f>
+        <v>BAB</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="G25" s="1" t="str" cm="1">
+        <f t="array" ref="G25">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F25)</f>
+        <v>BAC</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="G26" s="1" t="str" cm="1">
+        <f t="array" ref="G26">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F26)</f>
+        <v>BAD</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="G27" s="1" t="str" cm="1">
+        <f t="array" ref="G27">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F27)</f>
+        <v>BBA</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="G28" s="1" t="str" cm="1">
+        <f t="array" ref="G28">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F28)</f>
+        <v>BBB</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="G29" s="1" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F29)</f>
+        <v>BBC</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="G30" s="1" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F30)</f>
+        <v>BBD</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F31)</f>
+        <v>BCA</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G32" s="1" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F32)</f>
+        <v>BCB</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="G33" s="1" t="str" cm="1">
+        <f t="array" ref="G33">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F33)</f>
+        <v>BCC</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="G34" s="1" t="str" cm="1">
+        <f t="array" ref="G34">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F34)</f>
+        <v>BCD</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G35" s="1" t="str" cm="1">
+        <f t="array" ref="G35">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F35)</f>
+        <v>BDA</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="G36" s="1" t="str" cm="1">
+        <f t="array" ref="G36">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F36)</f>
+        <v>BDB</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="G37" s="1" t="str" cm="1">
+        <f t="array" ref="G37">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F37)</f>
+        <v>BDC</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="G38" s="1" t="str" cm="1">
+        <f t="array" ref="G38">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F38)</f>
+        <v>BDD</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G39" s="1" t="str" cm="1">
+        <f t="array" ref="G39">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F39)</f>
+        <v>CAA</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="G40" s="1" t="str" cm="1">
+        <f t="array" ref="G40">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F40)</f>
+        <v>CAB</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="G41" s="1" t="str" cm="1">
+        <f t="array" ref="G41">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F41)</f>
+        <v>CAC</v>
+      </c>
+      <c r="H41" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="G42" s="1" t="str" cm="1">
+        <f t="array" ref="G42">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F42)</f>
+        <v>CAD</v>
+      </c>
+      <c r="H42" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G43" s="1" t="str" cm="1">
+        <f t="array" ref="G43">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F43)</f>
+        <v>CBA</v>
+      </c>
+      <c r="H43" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="G44" s="1" t="str" cm="1">
+        <f t="array" ref="G44">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F44)</f>
+        <v>CBB</v>
+      </c>
+      <c r="H44" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="G45" s="1" t="str" cm="1">
+        <f t="array" ref="G45">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F45)</f>
+        <v>CBC</v>
+      </c>
+      <c r="H45" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="G46" s="1" t="str" cm="1">
+        <f t="array" ref="G46">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F46)</f>
+        <v>CBD</v>
+      </c>
+      <c r="H46" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G47" s="1" t="str" cm="1">
+        <f t="array" ref="G47">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F47)</f>
+        <v>CCA</v>
+      </c>
+      <c r="H47" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="G48" s="1" t="str" cm="1">
+        <f t="array" ref="G48">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F48)</f>
+        <v>CCB</v>
+      </c>
+      <c r="H48" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="G49" s="1" t="str" cm="1">
+        <f t="array" ref="G49">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F49)</f>
+        <v>CCC</v>
+      </c>
+      <c r="H49" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="G50" s="1" t="str" cm="1">
+        <f t="array" ref="G50">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F50)</f>
+        <v>CCD</v>
+      </c>
+      <c r="H50" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="G51" s="1" t="str" cm="1">
+        <f t="array" ref="G51">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F51)</f>
+        <v>CDA</v>
+      </c>
+      <c r="H51" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="G52" s="1" t="str" cm="1">
+        <f t="array" ref="G52">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F52)</f>
+        <v>CDB</v>
+      </c>
+      <c r="H52" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="G53" s="1" t="str" cm="1">
+        <f t="array" ref="G53">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F53)</f>
+        <v>CDC</v>
+      </c>
+      <c r="H53" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>47</v>
+      </c>
+      <c r="F54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="G54" s="1" t="str" cm="1">
+        <f t="array" ref="G54">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F54)</f>
+        <v>CDD</v>
+      </c>
+      <c r="H54" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G55" s="1" t="str" cm="1">
+        <f t="array" ref="G55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F55)</f>
+        <v>DAA</v>
+      </c>
+      <c r="H55" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="G56" s="1" t="str" cm="1">
+        <f t="array" ref="G56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F56)</f>
+        <v>DAB</v>
+      </c>
+      <c r="H56" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="G57" s="1" t="str" cm="1">
+        <f t="array" ref="G57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F57)</f>
+        <v>DAC</v>
+      </c>
+      <c r="H57" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>51</v>
+      </c>
+      <c r="F58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="G58" s="1" t="str" cm="1">
+        <f t="array" ref="G58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F58)</f>
+        <v>DAD</v>
+      </c>
+      <c r="H58" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>52</v>
+      </c>
+      <c r="F59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="G59" s="1" t="str" cm="1">
+        <f t="array" ref="G59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F59)</f>
+        <v>DBA</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>53</v>
+      </c>
+      <c r="F60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="G60" s="1" t="str" cm="1">
+        <f t="array" ref="G60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F60)</f>
+        <v>DBB</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="F61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="G61" s="1" t="str" cm="1">
+        <f t="array" ref="G61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F61)</f>
+        <v>DBC</v>
+      </c>
+      <c r="H61" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="F62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="G62" s="1" t="str" cm="1">
+        <f t="array" ref="G62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F62)</f>
+        <v>DBD</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>56</v>
+      </c>
+      <c r="F63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="G63" s="1" t="str" cm="1">
+        <f t="array" ref="G63">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F63)</f>
+        <v>DCA</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>57</v>
+      </c>
+      <c r="F64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="G64" s="1" t="str" cm="1">
+        <f t="array" ref="G64">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F64)</f>
+        <v>DCB</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>58</v>
+      </c>
+      <c r="F65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="G65" s="1" t="str" cm="1">
+        <f t="array" ref="G65">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F65)</f>
+        <v>DCC</v>
+      </c>
+      <c r="H65" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>59</v>
+      </c>
+      <c r="F66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="G66" s="1" t="str" cm="1">
+        <f t="array" ref="G66">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F66)</f>
+        <v>DCD</v>
+      </c>
+      <c r="H66" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G67" s="1" t="str" cm="1">
+        <f t="array" ref="G67">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F67)</f>
+        <v>DDA</v>
+      </c>
+      <c r="H67" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>61</v>
+      </c>
+      <c r="F68" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+      <c r="G68" s="1" t="str" cm="1">
+        <f t="array" ref="G68">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F68)</f>
+        <v>DDB</v>
+      </c>
+      <c r="H68" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>62</v>
+      </c>
+      <c r="F69" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="G69" s="1" t="str" cm="1">
+        <f t="array" ref="G69">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F69)</f>
+        <v>DDC</v>
+      </c>
+      <c r="H69" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>63</v>
+      </c>
+      <c r="F70" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="G70" s="1" t="str" cm="1">
+        <f t="array" ref="G70">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.z,MID(_xlpm.x,{1,2,3},1),_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP(_xlpm.z+1,$G$2:$G$5,$H$2:$H$5))))(F70)</f>
+        <v>DDD</v>
+      </c>
+      <c r="H70" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-128 Cartesian Product.xlsx
+++ b/CH-128 Cartesian Product.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C0A56-7A93-47C0-A2FA-BDA73A31F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CFEE7-5B3F-46F1-AF9B-240930DF94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="EDA2" sheetId="3" r:id="rId3"/>
+    <sheet name="SingleFunction" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EDA2'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SingleFunction!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="70">
   <si>
     <t>Result</t>
   </si>
@@ -1156,6 +1158,253 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82828</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3014872</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCB881F-93D7-452F-AC46-963BEA879587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="301489" y="0"/>
+          <a:ext cx="2932044" cy="1796499"/>
+          <a:chOff x="4003539" y="1860550"/>
+          <a:chExt cx="4034158" cy="2393950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF48CA2C-87B0-8F88-4088-FAFF3F5AAE06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4108379" y="1860550"/>
+            <a:ext cx="3860942" cy="2393950"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-AU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D6D245-B03C-06FA-A8E7-0CCC3CED92DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4003539" y="1872423"/>
+            <a:ext cx="4034158" cy="2343148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Challenge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> 128</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cartesian Product! </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-AU" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Write all the 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> characters words by using "A","B",C", AND "D".</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Wisp">
   <a:themeElements>
@@ -1790,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA10BB-F35B-4DB2-88A0-8867B5C04233}">
   <dimension ref="B1:I93"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I39" sqref="I38:I39"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3129,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4254ED2-C4F9-4085-9A22-E57E632847D7}">
   <dimension ref="B1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4500,4 +4749,841 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597113D3-B28C-4299-BEBE-1D3737B2E0B7}">
+  <dimension ref="B1:F69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="str" cm="1">
+        <f t="array" ref="E6:E69">_xlfn.LET(
+_xlpm.z, _xlfn.TOCOL({"A";"B";"C";"D"}&amp;{"A","B","C","D"}),
+_xlpm.zz, _xlfn.TOCOL(_xlpm.z&amp;{"A","B","C","D"}),
+_xlfn._xlws.SORT(_xlpm.zz)
+)</f>
+        <v>AAA</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <f>E6=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="str">
+        <v>AAB</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <f t="shared" ref="F7:F69" si="0">E7=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="str">
+        <v>AAC</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="str">
+        <v>AAD</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="str">
+        <v>ABA</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ABB</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ABD</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <v>ACA</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <v>ACB</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <v>ACC</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <v>ACD</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ADA</v>
+      </c>
+      <c r="F18" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <v>ADB</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <v>ADC</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="str">
+        <v>BAA</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="str">
+        <v>BAB</v>
+      </c>
+      <c r="F23" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <v>BAC</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <v>BBA</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="str">
+        <v>BBB</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="str">
+        <v>BBC</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="str">
+        <v>BBD</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="str">
+        <v>BCA</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <v>BCB</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="str">
+        <v>BCC</v>
+      </c>
+      <c r="F32" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="str">
+        <v>BCD</v>
+      </c>
+      <c r="F33" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="F34" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="str">
+        <v>BDB</v>
+      </c>
+      <c r="F35" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="str">
+        <v>BDC</v>
+      </c>
+      <c r="F36" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="str">
+        <v>BDD</v>
+      </c>
+      <c r="F37" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="str">
+        <v>CAA</v>
+      </c>
+      <c r="F38" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="str">
+        <v>CAB</v>
+      </c>
+      <c r="F39" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="F40" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="F41" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="str">
+        <v>CBA</v>
+      </c>
+      <c r="F42" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="str">
+        <v>CBB</v>
+      </c>
+      <c r="F43" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="str">
+        <v>CBC</v>
+      </c>
+      <c r="F44" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="str">
+        <v>CBD</v>
+      </c>
+      <c r="F45" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="str">
+        <v>CCA</v>
+      </c>
+      <c r="F46" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="str">
+        <v>CCB</v>
+      </c>
+      <c r="F47" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="str">
+        <v>CCC</v>
+      </c>
+      <c r="F48" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="str">
+        <v>CCD</v>
+      </c>
+      <c r="F49" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="str">
+        <v>CDA</v>
+      </c>
+      <c r="F50" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="str">
+        <v>CDB</v>
+      </c>
+      <c r="F51" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="str">
+        <v>CDC</v>
+      </c>
+      <c r="F52" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="str">
+        <v>CDD</v>
+      </c>
+      <c r="F53" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="F54" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="str">
+        <v>DAB</v>
+      </c>
+      <c r="F55" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="str">
+        <v>DAC</v>
+      </c>
+      <c r="F56" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="str">
+        <v>DAD</v>
+      </c>
+      <c r="F57" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="str">
+        <v>DBA</v>
+      </c>
+      <c r="F58" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="str">
+        <v>DBB</v>
+      </c>
+      <c r="F59" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="F60" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="str">
+        <v>DBD</v>
+      </c>
+      <c r="F61" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="str">
+        <v>DCA</v>
+      </c>
+      <c r="F62" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="str">
+        <v>DCB</v>
+      </c>
+      <c r="F63" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="str">
+        <v>DCC</v>
+      </c>
+      <c r="F64" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="str">
+        <v>DCD</v>
+      </c>
+      <c r="F65" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <v>DDA</v>
+      </c>
+      <c r="F66" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <v>DDB</v>
+      </c>
+      <c r="F67" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <v>DDC</v>
+      </c>
+      <c r="F68" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <v>DDD</v>
+      </c>
+      <c r="F69" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>